--- a/biology/Médecine/Curette/Curette.xlsx
+++ b/biology/Médecine/Curette/Curette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La curette est un instrument chirurgical conçu pour le grattage ou le débridement des tissus biologiques ou de débris dans une biopsie, l'excision, ou la procédure de nettoyage, elle peut aussi servir à enlever un embryon (dans le cas d'un avortement par curetage). C'est un petit outil à main, souvent de forme semblable à un stylet ; à son extrémité se trouve une petite boule, un crochet ou une gouge. Le verbe cureter signifie « gratter avec une curette », et le curetage (/kyʁ.taʒ/) est le traitement qui implique de tels grattages.
 Quelques exemples d'utilisation médicale d'une curette :
